--- a/data/metrics_file.xlsx
+++ b/data/metrics_file.xlsx
@@ -470,16 +470,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.8253241800152555</v>
+        <v>0.8234172387490465</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8164241620626824</v>
+        <v>0.8115044184385398</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8253241800152555</v>
+        <v>0.8234172387490465</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8082083807525271</v>
+        <v>0.8074848651387989</v>
       </c>
     </row>
     <row r="3">
@@ -492,16 +492,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.9035087719298246</v>
+        <v>0.9040808543096872</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8985637811094236</v>
+        <v>0.8985808142791407</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9035087719298246</v>
+        <v>0.9040808543096872</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8963906530798231</v>
+        <v>0.897351783819351</v>
       </c>
     </row>
     <row r="4">
@@ -514,16 +514,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.9963768115942029</v>
+        <v>0.9944698703279939</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9963899390884268</v>
+        <v>0.9945004526621831</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9963768115942029</v>
+        <v>0.9944698703279939</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9945685052210738</v>
+        <v>0.9917124722746894</v>
       </c>
     </row>
     <row r="5">
@@ -536,16 +536,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.7763157894736842</v>
+        <v>0.7856598016781083</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7754672591298543</v>
+        <v>0.7851128414084616</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7763157894736842</v>
+        <v>0.7856598016781083</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7739229569710026</v>
+        <v>0.7832789514863805</v>
       </c>
     </row>
     <row r="6">
@@ -558,16 +558,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.9200991609458429</v>
+        <v>0.9286803966437833</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9000022288553261</v>
+        <v>0.9122646347283806</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9200991609458429</v>
+        <v>0.9286803966437833</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8967024829383463</v>
+        <v>0.9074993595181257</v>
       </c>
     </row>
     <row r="7">
@@ -580,16 +580,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.9530892448512586</v>
+        <v>0.9584286803966438</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9458414983846045</v>
+        <v>0.9550594209700584</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9530892448512586</v>
+        <v>0.9584286803966438</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9391960106027959</v>
+        <v>0.9453413967275538</v>
       </c>
     </row>
     <row r="8">
@@ -602,16 +602,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.9727307398932112</v>
+        <v>0.9738749046529367</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9734749200831484</v>
+        <v>0.9713256089829317</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9727307398932112</v>
+        <v>0.9738749046529367</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9600070931035884</v>
+        <v>0.9623670633221099</v>
       </c>
     </row>
     <row r="9">
@@ -624,16 +624,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.9811212814645309</v>
+        <v>0.9832189168573608</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9814776874780724</v>
+        <v>0.983500521608801</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9811212814645309</v>
+        <v>0.9832189168573608</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9717718727760152</v>
+        <v>0.9748993721762601</v>
       </c>
     </row>
     <row r="10">
@@ -646,16 +646,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.9677726926010679</v>
+        <v>0.965675057208238</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9617989321623677</v>
+        <v>0.9547911016542763</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9677726926010679</v>
+        <v>0.965675057208238</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9559142953009011</v>
+        <v>0.9522854753899208</v>
       </c>
     </row>
     <row r="11">
@@ -668,16 +668,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.9605263157894737</v>
+        <v>0.9591914569031273</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9567605951503231</v>
+        <v>0.9555905035832406</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9605263157894737</v>
+        <v>0.9591914569031273</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9562294177455903</v>
+        <v>0.9534363594582247</v>
       </c>
     </row>
     <row r="12">
@@ -690,16 +690,16 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.9418382913806255</v>
+        <v>0.9448893974065599</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9383212608413527</v>
+        <v>0.9420119014272011</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9418382913806255</v>
+        <v>0.9448893974065599</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9373515651952308</v>
+        <v>0.9407697441134804</v>
       </c>
     </row>
     <row r="13">
@@ -712,16 +712,16 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.9384057971014492</v>
+        <v>0.9376430205949656</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9338609567551587</v>
+        <v>0.9323518776307311</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9384057971014492</v>
+        <v>0.9376430205949656</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9287301333994732</v>
+        <v>0.9282735536118903</v>
       </c>
     </row>
     <row r="14">
@@ -734,16 +734,16 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.9851258581235698</v>
+        <v>0.9841723874904653</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9842243633685429</v>
+        <v>0.9808129901947911</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9851258581235698</v>
+        <v>0.9841723874904653</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9796389322352379</v>
+        <v>0.9786825022043423</v>
       </c>
     </row>
     <row r="15">
@@ -756,16 +756,16 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.9794050343249427</v>
+        <v>0.9786422578184591</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9753068169593138</v>
+        <v>0.9771802573674693</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9794050343249427</v>
+        <v>0.9786422578184591</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9713006121723228</v>
+        <v>0.9698566280682309</v>
       </c>
     </row>
     <row r="16">
@@ -778,16 +778,16 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.9877955758962624</v>
+        <v>0.9876048817696415</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9879445522728864</v>
+        <v>0.9877585207255861</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9877955758962624</v>
+        <v>0.9876048817696415</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9819157521658876</v>
+        <v>0.9814459719245848</v>
       </c>
     </row>
     <row r="17">
@@ -800,16 +800,16 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.9679633867276888</v>
+        <v>0.9664378337147216</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9567756832147855</v>
+        <v>0.9521627661182497</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9679633867276888</v>
+        <v>0.9664378337147216</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9550815048992752</v>
+        <v>0.9527143760553373</v>
       </c>
     </row>
     <row r="18">
@@ -822,16 +822,16 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.9643401983218917</v>
+        <v>0.9647215865751335</v>
       </c>
       <c r="D18" t="n">
-        <v>0.962140859394864</v>
+        <v>0.9608824090865303</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9643401983218917</v>
+        <v>0.9647215865751335</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9547250502086686</v>
+        <v>0.9555148049593296</v>
       </c>
     </row>
     <row r="19">
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.868230358504958</v>
+        <v>0.8768115942028986</v>
       </c>
       <c r="D19" t="n">
-        <v>0.829370683610314</v>
+        <v>0.8479956457849919</v>
       </c>
       <c r="E19" t="n">
-        <v>0.868230358504958</v>
+        <v>0.8768115942028986</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8281207774554834</v>
+        <v>0.8406119845558243</v>
       </c>
     </row>
     <row r="20">
@@ -866,16 +866,16 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.9393592677345538</v>
+        <v>0.9361174675819984</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9202648476018468</v>
+        <v>0.9115632972310315</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9393592677345538</v>
+        <v>0.9361174675819984</v>
       </c>
       <c r="F20" t="n">
-        <v>0.913157589654537</v>
+        <v>0.9075733387752446</v>
       </c>
     </row>
     <row r="21">
@@ -888,16 +888,16 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.9513729977116705</v>
+        <v>0.9582379862700229</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9424845808257593</v>
+        <v>0.9563768831821148</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9513729977116705</v>
+        <v>0.9582379862700229</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9328914285685658</v>
+        <v>0.9414761337327558</v>
       </c>
     </row>
     <row r="22">
@@ -910,16 +910,16 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.9574752097635393</v>
+        <v>0.9572845156369184</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9511636540019794</v>
+        <v>0.951634388744494</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9574752097635393</v>
+        <v>0.9572845156369184</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9459660027641694</v>
+        <v>0.9454569940450906</v>
       </c>
     </row>
     <row r="23">
@@ -932,16 +932,16 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.9801678108314263</v>
+        <v>0.9841723874904653</v>
       </c>
       <c r="D23" t="n">
-        <v>0.974648846946398</v>
+        <v>0.9822535857892297</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9801678108314263</v>
+        <v>0.9841723874904653</v>
       </c>
       <c r="F23" t="n">
-        <v>0.973128675831765</v>
+        <v>0.9783897083224156</v>
       </c>
     </row>
     <row r="24">
@@ -954,16 +954,16 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.9921815408085431</v>
+        <v>0.994279176201373</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9922426691126717</v>
+        <v>0.9943119040263079</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9921815408085431</v>
+        <v>0.994279176201373</v>
       </c>
       <c r="F24" t="n">
-        <v>0.988287653264449</v>
+        <v>0.9914269697291946</v>
       </c>
     </row>
     <row r="25">
@@ -976,16 +976,16 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.9916094584286804</v>
+        <v>0.9900839054157132</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9916798596165404</v>
+        <v>0.9806419456082012</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9916094584286804</v>
+        <v>0.9900839054157132</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9874318620890727</v>
+        <v>0.9853403067887694</v>
       </c>
     </row>
     <row r="26">
@@ -998,16 +998,16 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.9971395881006865</v>
+        <v>0.9963768115942029</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9971477700569202</v>
+        <v>0.9963899390884268</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9971395881006865</v>
+        <v>0.9963768115942029</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9957114305697489</v>
+        <v>0.9945685052210738</v>
       </c>
     </row>
     <row r="27">
@@ -1020,16 +1020,16 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.9874141876430206</v>
+        <v>0.9877955758962624</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9875725903157057</v>
+        <v>0.9879445238639664</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9874141876430206</v>
+        <v>0.9877955758962624</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9811611329141355</v>
+        <v>0.9817308294594473</v>
       </c>
     </row>
     <row r="28">
@@ -1042,16 +1042,16 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.9565217391304348</v>
+        <v>0.956140350877193</v>
       </c>
       <c r="D28" t="n">
-        <v>0.926588947892466</v>
+        <v>0.9435473342773075</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9565217391304348</v>
+        <v>0.956140350877193</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9360092229182738</v>
+        <v>0.9352604440991</v>
       </c>
     </row>
     <row r="29">
@@ -1064,16 +1064,16 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.8703279938977879</v>
+        <v>0.8756674294431731</v>
       </c>
       <c r="D29" t="n">
-        <v>0.8686108010734673</v>
+        <v>0.8728736006952584</v>
       </c>
       <c r="E29" t="n">
-        <v>0.8703279938977879</v>
+        <v>0.8756674294431731</v>
       </c>
       <c r="F29" t="n">
-        <v>0.8645035760212699</v>
+        <v>0.8700926197896768</v>
       </c>
     </row>
     <row r="30">
@@ -1086,16 +1086,16 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.9464149504195271</v>
+        <v>0.9508009153318078</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9443451543675375</v>
+        <v>0.948402014830024</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9464149504195271</v>
+        <v>0.9508009153318078</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9360730520015256</v>
+        <v>0.9420804001667314</v>
       </c>
     </row>
     <row r="31">
@@ -1108,16 +1108,16 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.9353546910755148</v>
+        <v>0.9452707856598017</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9283784880601036</v>
+        <v>0.9393753155608356</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9353546910755148</v>
+        <v>0.9452707856598017</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9279407865809064</v>
+        <v>0.939271033468728</v>
       </c>
     </row>
     <row r="32">
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.990465293668955</v>
+        <v>0.9898932112890922</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9905562736911978</v>
+        <v>0.9899954364420843</v>
       </c>
       <c r="E32" t="n">
-        <v>0.990465293668955</v>
+        <v>0.9898932112890922</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9863783604993185</v>
+        <v>0.9855282433667569</v>
       </c>
     </row>
     <row r="33">
@@ -1152,16 +1152,16 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.9599542334096109</v>
+        <v>0.9597635392829901</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9582584375241822</v>
+        <v>0.957677683843149</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9599542334096109</v>
+        <v>0.9597635392829901</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9568313204748542</v>
+        <v>0.9566012813800969</v>
       </c>
     </row>
     <row r="34">
@@ -1174,16 +1174,16 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.9809305873379099</v>
+        <v>0.982837528604119</v>
       </c>
       <c r="D34" t="n">
-        <v>0.97715644904785</v>
+        <v>0.9794074066795614</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9809305873379099</v>
+        <v>0.982837528604119</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9745125136567366</v>
+        <v>0.9763540418889506</v>
       </c>
     </row>
     <row r="35">
@@ -1196,16 +1196,16 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.9456521739130435</v>
+        <v>0.9517543859649122</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9322366852101793</v>
+        <v>0.934228856079012</v>
       </c>
       <c r="E35" t="n">
-        <v>0.9456521739130435</v>
+        <v>0.9517543859649122</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9215490608419233</v>
+        <v>0.9307114038211765</v>
       </c>
     </row>
     <row r="36">
@@ -1218,16 +1218,16 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.872234935163997</v>
+        <v>0.8750953470633105</v>
       </c>
       <c r="D36" t="n">
-        <v>0.8640988052435791</v>
+        <v>0.8662279827305479</v>
       </c>
       <c r="E36" t="n">
-        <v>0.872234935163997</v>
+        <v>0.8750953470633105</v>
       </c>
       <c r="F36" t="n">
-        <v>0.8609622611644887</v>
+        <v>0.864646312585765</v>
       </c>
     </row>
   </sheetData>
